--- a/src/main/resources/configfile/testData.xlsx
+++ b/src/main/resources/configfile/testData.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/Documents/coreJava/uiFramework/src/main/resources/configfile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/latestPageObjectModelFramework/src/main/resources/configfile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B2046C04-3CB0-4940-9D2B-03FE74C10D36}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92AE3D8-8947-3F41-B8FF-1CFD477E437F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="16420" windowWidth="28040" xWindow="380" xr2:uid="{1E70CCEB-B519-2340-A0D6-827872CDD493}" yWindow="460"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="2" xr2:uid="{1E70CCEB-B519-2340-A0D6-827872CDD493}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" r:id="rId1" sheetId="1"/>
-    <sheet name="TestScripts" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
-    <sheet name="Sheet4" r:id="rId4" sheetId="4"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="TestScripts" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginData" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
-  <si>
-    <t>TestName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Test Steps</t>
   </si>
@@ -70,14 +67,40 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>TestNameStart</t>
+  </si>
+  <si>
+    <t>LoginTestDataStart</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>runMode</t>
+  </si>
+  <si>
+    <t>1529830551216@gmail.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +112,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,20 +163,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -162,10 +196,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -200,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -252,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -363,21 +397,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -394,7 +428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -446,105 +480,106 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C113A96-F430-7948-86CC-28CFE8B182AD}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C113A96-F430-7948-86CC-28CFE8B182AD}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B10E5B6-FCE8-474C-91C8-85328057A2E3}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B10E5B6-FCE8-474C-91C8-85328057A2E3}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -552,62 +587,124 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AD0CFE-F178-DB43-95FD-EA2A075B2340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AD0CFE-F178-DB43-95FD-EA2A075B2340}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9CD3D93C-2FBA-BD4B-9477-D75209FABEE7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{512EF6B6-3484-D04D-B889-69BE7B7B99C8}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{48AF9F90-9F5B-B04A-8876-7EEB3986E76D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8263DDFC-8FBD-EB47-B279-14F4A882BF1A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8263DDFC-8FBD-EB47-B279-14F4A882BF1A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>